--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H2">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I2">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J2">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N2">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q2">
-        <v>97.28873041885711</v>
+        <v>97.47382465704555</v>
       </c>
       <c r="R2">
-        <v>97.28873041885711</v>
+        <v>877.2644219134099</v>
       </c>
       <c r="S2">
-        <v>0.06536546251027799</v>
+        <v>0.05157310655038767</v>
       </c>
       <c r="T2">
-        <v>0.06536546251027799</v>
+        <v>0.05157310655038769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H3">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I3">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J3">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N3">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q3">
-        <v>94.28045296262394</v>
+        <v>97.76166766258221</v>
       </c>
       <c r="R3">
-        <v>94.28045296262394</v>
+        <v>879.8550089632399</v>
       </c>
       <c r="S3">
-        <v>0.06334428856300434</v>
+        <v>0.05172540341620326</v>
       </c>
       <c r="T3">
-        <v>0.06334428856300434</v>
+        <v>0.05172540341620328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H4">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I4">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J4">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N4">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q4">
-        <v>65.19657282673137</v>
+        <v>69.08948671790054</v>
       </c>
       <c r="R4">
-        <v>65.19657282673137</v>
+        <v>621.8053804611048</v>
       </c>
       <c r="S4">
-        <v>0.04380367714283901</v>
+        <v>0.03655503898149675</v>
       </c>
       <c r="T4">
-        <v>0.04380367714283901</v>
+        <v>0.03655503898149676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H5">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I5">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J5">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N5">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q5">
-        <v>47.40360422032825</v>
+        <v>106.2500633669211</v>
       </c>
       <c r="R5">
-        <v>47.40360422032825</v>
+        <v>956.2505703022899</v>
       </c>
       <c r="S5">
-        <v>0.03184910010826227</v>
+        <v>0.05621658797412939</v>
       </c>
       <c r="T5">
-        <v>0.03184910010826227</v>
+        <v>0.05621658797412941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H6">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I6">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J6">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N6">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q6">
-        <v>3.213404003011043</v>
+        <v>3.526463382197222</v>
       </c>
       <c r="R6">
-        <v>3.213404003011043</v>
+        <v>31.738170439775</v>
       </c>
       <c r="S6">
-        <v>0.002158992495686666</v>
+        <v>0.001865841136284498</v>
       </c>
       <c r="T6">
-        <v>0.002158992495686666</v>
+        <v>0.001865841136284499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H7">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I7">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J7">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N7">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q7">
-        <v>252.2371486467435</v>
+        <v>253.6153781253331</v>
       </c>
       <c r="R7">
-        <v>252.2371486467435</v>
+        <v>2282.538403127998</v>
       </c>
       <c r="S7">
-        <v>0.1694707887808185</v>
+        <v>0.1341871314159954</v>
       </c>
       <c r="T7">
-        <v>0.1694707887808185</v>
+        <v>0.1341871314159954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H8">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I8">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J8">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N8">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q8">
-        <v>244.4376910463444</v>
+        <v>254.3643116256524</v>
       </c>
       <c r="R8">
-        <v>244.4376910463444</v>
+        <v>2289.278804630872</v>
       </c>
       <c r="S8">
-        <v>0.1642305605325468</v>
+        <v>0.134583389871504</v>
       </c>
       <c r="T8">
-        <v>0.1642305605325468</v>
+        <v>0.1345833898715041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H9">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I9">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J9">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N9">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q9">
-        <v>169.0329143011101</v>
+        <v>179.7626835727021</v>
       </c>
       <c r="R9">
-        <v>169.0329143011101</v>
+        <v>1617.864152154319</v>
       </c>
       <c r="S9">
-        <v>0.1135682886926714</v>
+        <v>0.09511189353960037</v>
       </c>
       <c r="T9">
-        <v>0.1135682886926714</v>
+        <v>0.09511189353960038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H10">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I10">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J10">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N10">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q10">
-        <v>122.901695937814</v>
+        <v>276.4501145969402</v>
       </c>
       <c r="R10">
-        <v>122.901695937814</v>
+        <v>2488.051031372462</v>
       </c>
       <c r="S10">
-        <v>0.08257406755834955</v>
+        <v>0.146268921591396</v>
       </c>
       <c r="T10">
-        <v>0.08257406755834955</v>
+        <v>0.1462689215913961</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H11">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I11">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J11">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N11">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q11">
-        <v>8.33128215035719</v>
+        <v>9.175441173749443</v>
       </c>
       <c r="R11">
-        <v>8.33128215035719</v>
+        <v>82.57897056374499</v>
       </c>
       <c r="S11">
-        <v>0.005597545663481775</v>
+        <v>0.004854698242995332</v>
       </c>
       <c r="T11">
-        <v>0.005597545663481775</v>
+        <v>0.004854698242995335</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H12">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I12">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J12">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N12">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q12">
-        <v>4.942286752220259</v>
+        <v>6.558137748522444</v>
       </c>
       <c r="R12">
-        <v>4.942286752220259</v>
+        <v>59.023239736702</v>
       </c>
       <c r="S12">
-        <v>0.003320578426981717</v>
+        <v>0.003469890897034995</v>
       </c>
       <c r="T12">
-        <v>0.003320578426981717</v>
+        <v>0.003469890897034996</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H13">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I13">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J13">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N13">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q13">
-        <v>4.789465662306413</v>
+        <v>6.577504117769777</v>
       </c>
       <c r="R13">
-        <v>4.789465662306413</v>
+        <v>59.197537059928</v>
       </c>
       <c r="S13">
-        <v>0.003217902390604876</v>
+        <v>0.003480137584575993</v>
       </c>
       <c r="T13">
-        <v>0.003217902390604876</v>
+        <v>0.003480137584575995</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H14">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I14">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J14">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N14">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q14">
-        <v>3.31199879764556</v>
+        <v>4.648410714003444</v>
       </c>
       <c r="R14">
-        <v>3.31199879764556</v>
+        <v>41.835696426031</v>
       </c>
       <c r="S14">
-        <v>0.002225235464678498</v>
+        <v>0.00245946008466115</v>
       </c>
       <c r="T14">
-        <v>0.002225235464678498</v>
+        <v>0.00245946008466115</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H15">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I15">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J15">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N15">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q15">
-        <v>2.408112472400099</v>
+        <v>7.148611986870888</v>
       </c>
       <c r="R15">
-        <v>2.408112472400099</v>
+        <v>64.33750788183801</v>
       </c>
       <c r="S15">
-        <v>0.001617940586309591</v>
+        <v>0.003782309035101788</v>
       </c>
       <c r="T15">
-        <v>0.001617940586309591</v>
+        <v>0.00378230903510179</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H16">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I16">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J16">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N16">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O16">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P16">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q16">
-        <v>0.1632415590710058</v>
+        <v>0.2372640317227777</v>
       </c>
       <c r="R16">
-        <v>0.1632415590710058</v>
+        <v>2.135376285505</v>
       </c>
       <c r="S16">
-        <v>0.0001096772459013091</v>
+        <v>0.0001255356833659334</v>
       </c>
       <c r="T16">
-        <v>0.0001096772459013091</v>
+        <v>0.0001255356833659334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H17">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I17">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J17">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N17">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O17">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P17">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q17">
-        <v>14.73121008705943</v>
+        <v>28.62763854832333</v>
       </c>
       <c r="R17">
-        <v>14.73121008705943</v>
+        <v>257.64874693491</v>
       </c>
       <c r="S17">
-        <v>0.009897470719692675</v>
+        <v>0.01514679718717642</v>
       </c>
       <c r="T17">
-        <v>0.009897470719692675</v>
+        <v>0.01514679718717642</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H18">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I18">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J18">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N18">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O18">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P18">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q18">
-        <v>14.27570442862249</v>
+        <v>28.71217678769333</v>
       </c>
       <c r="R18">
-        <v>14.27570442862249</v>
+        <v>258.40959108924</v>
       </c>
       <c r="S18">
-        <v>0.009591429743398794</v>
+        <v>0.01519152611457771</v>
       </c>
       <c r="T18">
-        <v>0.009591429743398794</v>
+        <v>0.01519152611457771</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H19">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I19">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J19">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N19">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O19">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P19">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q19">
-        <v>9.871897876886003</v>
+        <v>20.29128189242833</v>
       </c>
       <c r="R19">
-        <v>9.871897876886003</v>
+        <v>182.621537031855</v>
       </c>
       <c r="S19">
-        <v>0.006632640469237868</v>
+        <v>0.01073605603108462</v>
       </c>
       <c r="T19">
-        <v>0.006632640469237868</v>
+        <v>0.01073605603108462</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H20">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I20">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J20">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N20">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O20">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P20">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q20">
-        <v>7.177732196185812</v>
+        <v>31.20518170397666</v>
       </c>
       <c r="R20">
-        <v>7.177732196185812</v>
+        <v>280.84663533579</v>
       </c>
       <c r="S20">
-        <v>0.004822509069227821</v>
+        <v>0.01651056749446089</v>
       </c>
       <c r="T20">
-        <v>0.004822509069227821</v>
+        <v>0.01651056749446089</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H21">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I21">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J21">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N21">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O21">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P21">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q21">
-        <v>0.4865653941535886</v>
+        <v>1.035706964558333</v>
       </c>
       <c r="R21">
-        <v>0.4865653941535886</v>
+        <v>9.321362681024999</v>
       </c>
       <c r="S21">
-        <v>0.0003269091074928908</v>
+        <v>0.0005479894302504383</v>
       </c>
       <c r="T21">
-        <v>0.0003269091074928908</v>
+        <v>0.0005479894302504384</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H22">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I22">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J22">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N22">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O22">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P22">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q22">
-        <v>101.8833956752249</v>
+        <v>106.1762953840587</v>
       </c>
       <c r="R22">
-        <v>101.8833956752249</v>
+        <v>955.586658456528</v>
       </c>
       <c r="S22">
-        <v>0.06845248418554671</v>
+        <v>0.05617755755695271</v>
       </c>
       <c r="T22">
-        <v>0.06845248418554671</v>
+        <v>0.05617755755695273</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H23">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I23">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J23">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N23">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O23">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P23">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q23">
-        <v>98.73304597845413</v>
+        <v>106.4898370357546</v>
       </c>
       <c r="R23">
-        <v>98.73304597845413</v>
+        <v>958.4085333217919</v>
       </c>
       <c r="S23">
-        <v>0.06633585604051929</v>
+        <v>0.05634345149891914</v>
       </c>
       <c r="T23">
-        <v>0.06633585604051929</v>
+        <v>0.05634345149891916</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H24">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I24">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J24">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N24">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O24">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P24">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q24">
-        <v>68.27561833088748</v>
+        <v>75.25780152264265</v>
       </c>
       <c r="R24">
-        <v>68.27561833088748</v>
+        <v>677.3202137037839</v>
       </c>
       <c r="S24">
-        <v>0.04587239807899325</v>
+        <v>0.0398186757350619</v>
       </c>
       <c r="T24">
-        <v>0.04587239807899325</v>
+        <v>0.0398186757350619</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H25">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I25">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J25">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N25">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O25">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P25">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q25">
-        <v>49.64233929683756</v>
+        <v>115.7360773757813</v>
       </c>
       <c r="R25">
-        <v>49.64233929683756</v>
+        <v>1041.624696382032</v>
       </c>
       <c r="S25">
-        <v>0.03335324095873893</v>
+        <v>0.06123560936719276</v>
       </c>
       <c r="T25">
-        <v>0.03335324095873893</v>
+        <v>0.06123560936719278</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H26">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I26">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J26">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N26">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O26">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P26">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q26">
-        <v>3.36516377686915</v>
+        <v>3.841306310146666</v>
       </c>
       <c r="R26">
-        <v>3.36516377686915</v>
+        <v>34.57175679132</v>
       </c>
       <c r="S26">
-        <v>0.002260955464737474</v>
+        <v>0.002032423579590719</v>
       </c>
       <c r="T26">
-        <v>0.002260955464737474</v>
+        <v>0.002032423579590719</v>
       </c>
     </row>
   </sheetData>
